--- a/Turma Home Jan2018/1° Sabado/Aula 2/Parte 2/Vendas trimestre 1.xlsx
+++ b/Turma Home Jan2018/1° Sabado/Aula 2/Parte 2/Vendas trimestre 1.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio.rosa\Desktop\TeachX.git\trunk\Turma 462 - Outubro 2017\Aula 2\ini aula 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80643735\Desktop\TeachX.git\trunk\Turma Home Jan2018\1° Sabado\Aula 2\Parte 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650E8DBF-B9CB-4120-9971-E3684CFFC633}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -91,9 +100,6 @@
     <t>Valor Brooklin em Janeiro:</t>
   </si>
   <si>
-    <t>VENDAS - 1º trimestre 2017</t>
-  </si>
-  <si>
     <t>SOMA</t>
   </si>
   <si>
@@ -116,6 +122,9 @@
   </si>
   <si>
     <t>Cont se</t>
+  </si>
+  <si>
+    <t>VENDAS - 1º trimestre 2018</t>
   </si>
 </sst>
 </file>
@@ -218,9 +227,6 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -231,6 +237,9 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -574,7 +583,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,9 +592,9 @@
     <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="1"/>
@@ -594,35 +603,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -639,23 +648,19 @@
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>23</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>230</v>
       </c>
-      <c r="G4" s="7">
-        <f>E4*F4</f>
-        <v>5290</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="10" t="s">
-        <v>24</v>
+      <c r="J4" s="8"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -671,23 +676,19 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>128</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>23.8</v>
       </c>
-      <c r="G5" s="7">
-        <f t="shared" ref="G5:G17" si="0">E5*F5</f>
-        <v>3046.4</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="10" t="s">
-        <v>24</v>
+      <c r="J5" s="10"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -703,23 +704,19 @@
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>34</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>247</v>
       </c>
-      <c r="G6" s="7">
-        <f t="shared" si="0"/>
-        <v>8398</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="10" t="s">
+      <c r="I6" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -735,23 +732,19 @@
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>21</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>299</v>
       </c>
-      <c r="G7" s="7">
-        <f t="shared" si="0"/>
-        <v>6279</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -767,24 +760,20 @@
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>12</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>250</v>
       </c>
-      <c r="G8" s="7">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="10" t="s">
-        <v>25</v>
+      <c r="J8" s="10"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -800,24 +789,20 @@
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>14</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>220</v>
       </c>
-      <c r="G9" s="7">
-        <f t="shared" si="0"/>
-        <v>3080</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="10" t="s">
-        <v>25</v>
+      <c r="J9" s="10"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -833,23 +818,19 @@
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>15</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>210</v>
       </c>
-      <c r="G10" s="7">
-        <f t="shared" si="0"/>
-        <v>3150</v>
-      </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="10" t="s">
-        <v>25</v>
+      <c r="J10" s="10"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -865,23 +846,19 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>89</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>25</v>
       </c>
-      <c r="G11" s="7">
-        <f t="shared" si="0"/>
-        <v>2225</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="10" t="s">
-        <v>25</v>
+      <c r="J11" s="10"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -897,23 +874,19 @@
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>10</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>250</v>
       </c>
-      <c r="G12" s="7">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="10" t="s">
-        <v>25</v>
+      <c r="J12" s="10"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -929,24 +902,20 @@
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>45</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>20</v>
       </c>
-      <c r="G13" s="7">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="8" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="10" t="s">
-        <v>26</v>
+      <c r="J13" s="10"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -962,23 +931,19 @@
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>12</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>220</v>
       </c>
-      <c r="G14" s="7">
-        <f t="shared" si="0"/>
-        <v>2640</v>
-      </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="10" t="s">
-        <v>26</v>
+      <c r="J14" s="10"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -994,15 +959,11 @@
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>13</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>230</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="0"/>
-        <v>2990</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1018,15 +979,11 @@
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>90</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>20</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="0"/>
-        <v>1800</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1042,20 +999,16 @@
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>5</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>299</v>
       </c>
-      <c r="G17" s="7">
-        <f t="shared" si="0"/>
-        <v>1495</v>
-      </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="12"/>
+      <c r="H23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Turma Home Jan2018/1° Sabado/Aula 2/Parte 2/Vendas trimestre 1.xlsx
+++ b/Turma Home Jan2018/1° Sabado/Aula 2/Parte 2/Vendas trimestre 1.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80643735\Desktop\TeachX.git\trunk\Turma Home Jan2018\1° Sabado\Aula 2\Parte 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650E8DBF-B9CB-4120-9971-E3684CFFC633}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7A6121-15C3-4BC5-94CF-F5121B645511}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$3:$L$17</definedName>
+    <definedName name="Filial">Plan1!$B$3:$B$17</definedName>
+    <definedName name="Mês">Plan1!$C$3:$C$17</definedName>
+    <definedName name="Valor_Total">Plan1!$G$3:$G$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>Filial</t>
   </si>
@@ -125,6 +131,9 @@
   </si>
   <si>
     <t>VENDAS - 1º trimestre 2018</t>
+  </si>
+  <si>
+    <t>qtd vendas mouse fevereiro</t>
   </si>
 </sst>
 </file>
@@ -224,7 +233,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -240,6 +249,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -580,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +609,8 @@
     <col min="7" max="7" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -654,10 +667,17 @@
       <c r="F4" s="6">
         <v>230</v>
       </c>
+      <c r="G4" s="6">
+        <f>E4*F4</f>
+        <v>5290</v>
+      </c>
       <c r="I4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8">
+        <f>SUM(E4:E17)</f>
+        <v>511</v>
+      </c>
       <c r="K4" s="6"/>
       <c r="L4" s="9" t="s">
         <v>23</v>
@@ -682,10 +702,17 @@
       <c r="F5" s="6">
         <v>23.8</v>
       </c>
+      <c r="G5" s="6">
+        <f>E5*F5</f>
+        <v>3046.4</v>
+      </c>
       <c r="I5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="10">
+        <f>SUM(G4:G17)</f>
+        <v>46793.4</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="9" t="s">
         <v>23</v>
@@ -710,10 +737,17 @@
       <c r="F6" s="6">
         <v>247</v>
       </c>
+      <c r="G6" s="6">
+        <f t="shared" ref="G5:G17" si="0">E6*F6</f>
+        <v>8398</v>
+      </c>
       <c r="I6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="13">
+        <f>COUNTA(A4:A17)</f>
+        <v>14</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="9" t="s">
         <v>27</v>
@@ -738,10 +772,17 @@
       <c r="F7" s="6">
         <v>299</v>
       </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>6279</v>
+      </c>
       <c r="I7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="13">
+        <f>COUNTIF(C4:C17,"Janeiro")</f>
+        <v>5</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="9" t="s">
         <v>30</v>
@@ -766,11 +807,18 @@
       <c r="F8" s="6">
         <v>250</v>
       </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
       <c r="H8" s="11"/>
       <c r="I8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="10">
+        <f>SUMIF(B4:B17,"Vila Mariana",G4:G17)</f>
+        <v>27210.400000000001</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="9" t="s">
         <v>24</v>
@@ -795,11 +843,18 @@
       <c r="F9" s="6">
         <v>220</v>
       </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>3080</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="10"/>
+      <c r="J9" s="10">
+        <f>SUMIF(B4:B17,B6,G4:G17)</f>
+        <v>19583</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="9" t="s">
         <v>24</v>
@@ -824,10 +879,17 @@
       <c r="F10" s="6">
         <v>210</v>
       </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>3150</v>
+      </c>
       <c r="I10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="10">
+        <f>SUMIF(C4:C17,"janeiro",G4:G17)</f>
+        <v>26013.4</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="9" t="s">
         <v>24</v>
@@ -852,10 +914,17 @@
       <c r="F11" s="6">
         <v>25</v>
       </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>2225</v>
+      </c>
       <c r="I11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="10">
+        <f>SUMIF(C4:C17,"fevereiro",G4:G17)</f>
+        <v>11855</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="9" t="s">
         <v>24</v>
@@ -880,10 +949,17 @@
       <c r="F12" s="6">
         <v>250</v>
       </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
       <c r="I12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="10">
+        <f>SUMIF(C4:C17,"março",G4:G17)</f>
+        <v>8925</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="9" t="s">
         <v>24</v>
@@ -908,11 +984,18 @@
       <c r="F13" s="6">
         <v>20</v>
       </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="10">
+        <f>SUMIFS(G4:G17,B4:B17,B4,C4:C17,C11)</f>
+        <v>7805</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="9" t="s">
         <v>25</v>
@@ -937,10 +1020,17 @@
       <c r="F14" s="6">
         <v>220</v>
       </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>2640</v>
+      </c>
       <c r="I14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="10">
+        <f>SUMIFS(Valor_Total,Filial,"Brooklin",Mês,"Janeiro")</f>
+        <v>11398</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="9" t="s">
         <v>25</v>
@@ -965,6 +1055,10 @@
       <c r="F15" s="6">
         <v>230</v>
       </c>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>2990</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -985,8 +1079,19 @@
       <c r="F16" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="6">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="1">
+        <f>COUNTIFS(D4:D17,"Mouse",C4:C17,"Fevereiro")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1005,12 +1110,29 @@
       <c r="F17" s="6">
         <v>299</v>
       </c>
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>1495</v>
+      </c>
       <c r="H17" s="11"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <f>SUMIF(B4:B17,OR(B4,B5),G4:G17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H23" s="11"/>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="14"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A3:L17" xr:uid="{EEA325D9-8B44-40B5-B20E-A6EB9D096DC5}"/>
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
